--- a/2025_11_15_funding_table.xlsx
+++ b/2025_11_15_funding_table.xlsx
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
